--- a/Test_Project/target/test-classes/Data_DemoQA.xlsx
+++ b/Test_Project/target/test-classes/Data_DemoQA.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Textbox" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Table" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Form" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="sheet" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -79,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efewre</t>
   </si>
 </sst>
 </file>
@@ -204,10 +211,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.92"/>
@@ -278,7 +285,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.93"/>
   </cols>
@@ -360,11 +367,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.01"/>
@@ -430,4 +437,52 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>